--- a/koboforms/How Many Acts.xlsx
+++ b/koboforms/How Many Acts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/anticipatoryactiondecisions/koboforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dasdoresngueussiengamini/working/AA_projets/general/aadecisionoverviewFR/koboforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B39CED-8FEF-AF4D-868B-51AE338C825D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047FE45D-DB18-3E4C-B954-D75CFDB92AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-18500" windowWidth="28040" windowHeight="17440" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -63,95 +63,95 @@
     <t>version</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>Votre adresse e‑mail</t>
+  </si>
+  <si>
+    <t>Pour quelles années faudrait‑il intervenir selon la Règle 1 ?</t>
+  </si>
+  <si>
+    <t>Pour quelles années faudrait‑il intervenir selon la Règle 2 ?</t>
+  </si>
+  <si>
+    <t>Pour combien d’années faudrait‑il intervenir selon la Règle 1 ?</t>
+  </si>
+  <si>
+    <t>Pour combien d’années faudrait‑il intervenir selon la Règle 2 ?</t>
+  </si>
+  <si>
+    <t>Quelle est la fraction d’années pour lesquelles vous interviendriez pour l’année 1 (par exemple nombre / 5) ?</t>
+  </si>
+  <si>
+    <t>Quelle est la fraction d’années pour lesquelles vous interviendriez selon la Règle 1 (par exemple nombre / 5) ?</t>
+  </si>
+  <si>
+    <t>Quelle est la fraction d’années pour lesquelles vous interviendriez selon la Règle 2 (par exemple nombre / 5) ?</t>
+  </si>
+  <si>
+    <t>Quel est le pourcentage d’années pour lesquelles vous agiriez selon la Règle 1 ?</t>
+  </si>
+  <si>
+    <t>Quel est le pourcentage d’années pour lesquelles vous agiriez selon la Règle 2 ?</t>
+  </si>
+  <si>
+    <t>Comment pourriez‑vous faire cet exercice si vous n’aviez pas les chiffres IPC ni de règle, mais saviez simplement que vous auriez dû intervenir 1 ou 2 fois au cours des 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>How Many Actions FR</t>
+  </si>
+  <si>
+    <t>howmanyactionsFR</t>
+  </si>
+  <si>
     <t>v1</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>Your email</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>How Many Actions</t>
-  </si>
-  <si>
-    <t>howmanyactions</t>
-  </si>
-  <si>
-    <t>Which years would you respond for Rule 1?</t>
-  </si>
-  <si>
-    <t>Which years would you respond for Rule 2?</t>
-  </si>
-  <si>
-    <t>How many years would you respond for Rule 1?</t>
-  </si>
-  <si>
-    <t>How many years would you respond for Rule 2?</t>
-  </si>
-  <si>
-    <t>What is the fraction of years you would respond for year 1 (eg number / 5)?</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>What is the fraction of years you would respond for rule 1 (eg number / 5)?</t>
-  </si>
-  <si>
-    <t>What is the percentage of years you would act for rule 1?</t>
-  </si>
-  <si>
-    <t>What is the fraction of years you would respond for rule 2 (eg number / 5)?</t>
-  </si>
-  <si>
-    <t>What is the percentage of years you would act for rule 2?</t>
-  </si>
-  <si>
-    <t>How could you do this exercise if you did not have IPC figures and a rule, but instead knew that you would have had to act 1 or 2 times in the past 5 years?</t>
-  </si>
-  <si>
-    <t>multiline</t>
-  </si>
-  <si>
-    <t>appearance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C7F9E-9867-6243-AAB9-77628DC2993D}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,10 +564,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -569,66 +575,66 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -639,38 +645,38 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -681,10 +687,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -695,30 +701,30 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -731,14 +737,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -749,24 +755,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -776,15 +782,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF2FC2-2B0D-0B42-899E-2C094C966549}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -794,19 +800,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>